--- a/Data/Localization/Localization.xlsx
+++ b/Data/Localization/Localization.xlsx
@@ -71,13 +71,15 @@
     <sheet name="VerticalSynchronization" sheetId="56" r:id="rId58"/>
     <sheet name="ResolutionRatios" sheetId="57" r:id="rId59"/>
     <sheet name="QuestGroup" sheetId="58" r:id="rId60"/>
+    <sheet name="UIConfig" sheetId="59" r:id="rId61"/>
+    <sheet name="EnemyInfo" sheetId="60" r:id="rId62"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10332" uniqueCount="10332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10376" uniqueCount="10376">
   <si>
     <t>ID</t>
   </si>
@@ -31096,6 +31098,138 @@
   </si>
   <si>
     <t>新手视频播放</t>
+  </si>
+  <si>
+    <t>12372</t>
+  </si>
+  <si>
+    <t>角色系统</t>
+  </si>
+  <si>
+    <t>12373</t>
+  </si>
+  <si>
+    <t>商城系统</t>
+  </si>
+  <si>
+    <t>12374</t>
+  </si>
+  <si>
+    <t>成就系统</t>
+  </si>
+  <si>
+    <t>12375</t>
+  </si>
+  <si>
+    <t>图鉴系统</t>
+  </si>
+  <si>
+    <t>12376</t>
+  </si>
+  <si>
+    <t>战绩系统</t>
+  </si>
+  <si>
+    <t>12377</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>12378</t>
+  </si>
+  <si>
+    <t>科研系统</t>
+  </si>
+  <si>
+    <t>12379</t>
+  </si>
+  <si>
+    <t>装备系统</t>
+  </si>
+  <si>
+    <t>12380</t>
+  </si>
+  <si>
+    <t>弹窗系统</t>
+  </si>
+  <si>
+    <t>12381</t>
+  </si>
+  <si>
+    <t>构筑(抽卡)系统</t>
+  </si>
+  <si>
+    <t>12382</t>
+  </si>
+  <si>
+    <t>关卡指引</t>
+  </si>
+  <si>
+    <t>12383</t>
+  </si>
+  <si>
+    <t>战斗箭头指引</t>
+  </si>
+  <si>
+    <t>12362</t>
+  </si>
+  <si>
+    <t>斥候爬械</t>
+  </si>
+  <si>
+    <t>12363</t>
+  </si>
+  <si>
+    <t>蚕食爬械</t>
+  </si>
+  <si>
+    <t>12364</t>
+  </si>
+  <si>
+    <t>斥候爬械X01</t>
+  </si>
+  <si>
+    <t>12365</t>
+  </si>
+  <si>
+    <t>淘金爬械</t>
+  </si>
+  <si>
+    <t>12366</t>
+  </si>
+  <si>
+    <t>地人控械者</t>
+  </si>
+  <si>
+    <t>12367</t>
+  </si>
+  <si>
+    <t>自爆爬械</t>
+  </si>
+  <si>
+    <t>12368</t>
+  </si>
+  <si>
+    <t>地人重甲奇兵</t>
+  </si>
+  <si>
+    <t>12369</t>
+  </si>
+  <si>
+    <t>核缘尖兵</t>
+  </si>
+  <si>
+    <t>12370</t>
+  </si>
+  <si>
+    <t>工厂奇力机械</t>
+  </si>
+  <si>
+    <t>12371</t>
+  </si>
+  <si>
+    <t>裁决天械卫</t>
   </si>
 </sst>
 </file>
@@ -31962,6 +32096,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="UIConfig" displayName="UIConfig" ref="A1:C15">
+  <autoFilter ref="A1:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="String"/>
+    <tableColumn id="3" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Item" displayName="Item" ref="A1:L482">
   <autoFilter ref="A1:L482" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
@@ -31978,6 +32124,18 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="fr"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="en"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="EnemyInfo" displayName="EnemyInfo" ref="A1:C12">
+  <autoFilter ref="A1:C12"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="String"/>
+    <tableColumn id="3" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -34416,6 +34574,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="100"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36884,6 +37043,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="55"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62284,6 +62444,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="422"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -63364,6 +63525,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="84"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -63601,6 +63763,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="21"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -64970,6 +65133,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -65079,6 +65243,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -65223,6 +65388,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -65306,6 +65472,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="7"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -65378,6 +65545,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -65417,6 +65585,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -65456,6 +65625,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
@@ -65756,6 +65926,226 @@
         <v>10331</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27"/>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName=""/>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10332</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10333</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>10334</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10335</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>10336</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10337</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>10338</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10339</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10340</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10341</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>10342</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10343</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10344</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10345</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>10346</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10347</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10348</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>10349</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>10350</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>10351</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>10352</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>10353</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>10354</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10355</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -73579,11 +73969,150 @@
         <v>22</v>
       </c>
     </row>
+    <row r="482"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName=""/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>10356</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10357</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10358</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10359</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>10360</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10361</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>10362</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10363</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>10364</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10365</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10366</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10367</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>10368</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10369</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10370</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10371</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>10372</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10373</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10374</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>10375</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
@@ -81266,6 +81795,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="222"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -81491,6 +82021,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
